--- a/PersonInfo.xlsx
+++ b/PersonInfo.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Experience" sheetId="1" r:id="rId3"/>
+    <sheet name="Experience" sheetId="1" r:id="rId2"/>
+    <sheet name="Rewards" sheetId="9" r:id="rId3"/>
     <sheet name="Skills" sheetId="2" r:id="rId4"/>
     <sheet name="Projects" sheetId="3" r:id="rId5"/>
     <sheet name="Publications" sheetId="7" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="152">
   <si>
     <t>Location</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Skills</t>
-  </si>
-  <si>
-    <t>Company Name</t>
   </si>
   <si>
     <t>Moscow</t>
@@ -148,9 +145,6 @@
     <t>https://intelligentideas.ru/en/</t>
   </si>
   <si>
-    <t>Designed a circuit to check the system’s validity. Worked with Python to enhance desktop applications used to communicate with the digital helmet</t>
-  </si>
-  <si>
     <t>Prepared lecture content for multiple technical courses, such as C++ programming, control theory, and digital circuits.Taught many technical courses, including computer vision, deep learning, Computer rchitecture, control theory, C++ programming, control theory, and digital circuits</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>tishreen_logo.png</t>
   </si>
   <si>
-    <t>"None"</t>
-  </si>
-  <si>
     <t>publicationDate</t>
   </si>
   <si>
@@ -217,32 +208,336 @@
     <t>PublicationName</t>
   </si>
   <si>
-    <t>PAPER1</t>
-  </si>
-  <si>
-    <t>PAPER2</t>
-  </si>
-  <si>
-    <t>PAPER3</t>
-  </si>
-  <si>
-    <t>PAPER4</t>
-  </si>
-  <si>
     <t>CONF1</t>
+  </si>
+  <si>
+    <t>Designed a circuit to check the system’s validity. 
+Worked with Python to enhance desktop applications used to communicate with the digital helmet</t>
+  </si>
+  <si>
+    <t>RewardDate</t>
+  </si>
+  <si>
+    <t>RewardLink</t>
+  </si>
+  <si>
+    <t>RewardName</t>
+  </si>
+  <si>
+    <t>OrganName</t>
+  </si>
+  <si>
+    <t>ProjectTitle</t>
+  </si>
+  <si>
+    <t>Neurological diseases diagnosis through eye movements based on deep learning</t>
+  </si>
+  <si>
+    <t>Technologies &amp; Tools</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>Computer vision, semantic segmentation based on Deep learning—Python, bash</t>
+  </si>
+  <si>
+    <t>sklearn, OpenCV, numpy, Pandas, TensorFlow, Keras, PyTorch</t>
+  </si>
+  <si>
+    <t>ProjectDate</t>
+  </si>
+  <si>
+    <t>ProjectLink</t>
+  </si>
+  <si>
+    <t>https://skoltech.instructure.com/</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Russian: upper intermediate, English: upper Intermidate, Arabic: Native</t>
+  </si>
+  <si>
+    <t>Programming languages:</t>
+  </si>
+  <si>
+    <t>Assembly, C, C++, C, java, python, Micro-Python, Matlab, Labview, VHDL, Verilog,
+LAddar, Linux and Bash programming</t>
+  </si>
+  <si>
+    <t>Embedded systems and IoT</t>
+  </si>
+  <si>
+    <t>PLC, ESP32, microcontroller programming(STM32), Raspberry PI, FBGA, Embedded
+Linux, Yocto, PCB design in Altium, working with measurement devices, Digital signal processing, data
+transfer protocols(USART, I2C, SPI, etc)</t>
+  </si>
+  <si>
+    <t>Desktop applications</t>
+  </si>
+  <si>
+    <t>PyQT5, Glade</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Other Skills</t>
+  </si>
+  <si>
+    <t>Libraries/Frameworks</t>
+  </si>
+  <si>
+    <t>Data Science and Analysis, Computer vision, Machine learning, Deep learning</t>
+  </si>
+  <si>
+    <t>OpenCV, TensorFlow, Keras, PyTorch, Flask, Pandas, Numpy, sklearn, matplotlib, Yolo</t>
+  </si>
+  <si>
+    <t>Github, Docker, Latex and MS Office</t>
+  </si>
+  <si>
+    <t>Softwares</t>
+  </si>
+  <si>
+    <t>scientific-practical conference with international participation "Current problems of informatization in the digital economy and scientific research"</t>
+  </si>
+  <si>
+    <t>Poker cards detection based on deep learning</t>
+  </si>
+  <si>
+    <t>Road and lane segmentation based on deep learning for self-driving cars</t>
+  </si>
+  <si>
+    <t>Parkinson disease detection by hand drawing analysis and voice analysis</t>
+  </si>
+  <si>
+    <t>A deep learning model for sign language translator</t>
+  </si>
+  <si>
+    <t>Design smart bed for infants based on deep learning and embedded systems</t>
+  </si>
+  <si>
+    <t>Automatic test corrector based on computer vision</t>
+  </si>
+  <si>
+    <t>An embedded system server for IoT</t>
+  </si>
+  <si>
+    <t>Flue shot prediction</t>
+  </si>
+  <si>
+    <t>Smart scale prototype for Grocery</t>
+  </si>
+  <si>
+    <t>Implementation of path planning algorithm based on microcontroller STM32</t>
+  </si>
+  <si>
+    <t>Hammoud, M., Gethahun, M., Baldycheva, A., Somov, A. (2024). Machine Learning-based Infant Crying Interpretation.Frontiers in Artificial Intelligence, 7.</t>
+  </si>
+  <si>
+    <t>Hammoud, M., Lupin, S. (2023). An optimization of path planning A* for static uniform grid based on pruning algorithms: Experimental experience. International Journal of Open Information Technologies, 11(10), 33-38.</t>
+  </si>
+  <si>
+    <t>Hammoud, M. S., Getahun, M. N., Lupin, S. (2023). Comparison of Outlier Filtering Methods in Terms of Their Influence on Pose Estimation Quality. International Journal of Open Information Technologies, 11(10), 1-5.</t>
+  </si>
+  <si>
+    <t>Hammoud, M., Kovalenko, E., Somov, A., Bril, E., Baldycheva, A. (2023). Deep learning framework for neurological disease diagnosis through near-infrared eye video and time series imaging algorithms. Internet of Things, 24, 100914.</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>pro1.png</t>
+  </si>
+  <si>
+    <t>z.mp4</t>
+  </si>
+  <si>
+    <t>Computer vision, Deep learning— Python</t>
+  </si>
+  <si>
+    <t>PyQt5, sklearn, OpenCV, numpy, Pandas, Yolov8</t>
+  </si>
+  <si>
+    <t>Designed and trained a deep-learning model with a desktop application</t>
+  </si>
+  <si>
+    <t>Computer vision, semantic segmentation based on Deep learning— Python</t>
+  </si>
+  <si>
+    <t>klearn, OpenCV, numpy, Pandas, TensorFlow, Keras, PyTorch</t>
+  </si>
+  <si>
+    <t>Computer vision, Machine learning, Deep learning—Python</t>
+  </si>
+  <si>
+    <t>sklearn, OpenCV, numpy, Pandas, TensorFlow, Keras</t>
+  </si>
+  <si>
+    <t>Designed and trained a deep-learning model based on time series imagining for multiclassification tasks to detect diseases(Parkinson’s disease and Progressive Supranuclear Palsy) with an accuracy of 96.8%. The project is considered first in this direction.</t>
+  </si>
+  <si>
+    <t>Designed a deep learning model for Parkinson’s disease detection based on hand drawing analysis
+and voice signals to improve cure efficiency by early detection of Parkinson’s disease with an accuracy
+of 98%.</t>
+  </si>
+  <si>
+    <t>PyQt5, sklearn, OpenCV, numpy, Pandas, media-pipe</t>
+  </si>
+  <si>
+    <t>Embedded systems, signal processing, Deep learning—Python, Raspberry PI</t>
+  </si>
+  <si>
+    <t>Designed and trained LSTM-based deep learning model applied on key points extracted from videos. It was created on a small number of sentences</t>
+  </si>
+  <si>
+    <t>sklearn, numpy, Pandas, PyTorch, librosa, torchaudio</t>
+  </si>
+  <si>
+    <t>Designed a deep-learning model for infant crying classification using Python and PyTorch to
+recognize the infant’s status(hungry, tiredness, discomfort, and belly pain) with an accuracy of 100%. Implemented
+the built model inside an embedded system in Raspberry Pi to build a smart bed prototype based
+on the built model to provide an accurate model to detect the baby’s status, such as hunger, tiredness, discomfort,
+and belly pain. In addition to classification, the system provides full control of the bed(shaking). It
+allows music to be run remotely. The system is fully controlled by a mobile app.</t>
+  </si>
+  <si>
+    <t>Computer vision, desktop application development—Python</t>
+  </si>
+  <si>
+    <t>Opencv, PyQT5</t>
+  </si>
+  <si>
+    <t>Embedded systems, Internet of Things, web application, networking, server, temperature
+sensor—C++, Python</t>
+  </si>
+  <si>
+    <t>Plotly</t>
+  </si>
+  <si>
+    <t>Designed an embedded system using Raspberry Pi to provide a data processing center for IoT
+nodes. Designed a dashboard GUI(website) to allow data monitoring and visualization for the user. Implement
+the IOT nodes using ESP32 and the server inside Raspberry PI</t>
+  </si>
+  <si>
+    <t>Machine learning, Exploratory data analysis, feature engineering—Tools: Python</t>
+  </si>
+  <si>
+    <t>sklearn, numpy, Pandas</t>
+  </si>
+  <si>
+    <t>Designed a machine learning model to analyze the reasons behind avoiding vaccination to save time and money</t>
+  </si>
+  <si>
+    <t>Designed a desktop application for automatic test corrections computer vision to reduce the time for both teacher and student to get results and to save money where there is no need to buy any specified
+device or specific papers for tests.</t>
+  </si>
+  <si>
+    <t>Designed and trained a deep-learning model based for multi-classification tasks to detect roads and lanes with an IOU of 99.8%.</t>
+  </si>
+  <si>
+    <t>Computer vision, desktop application development,deep learning—Python</t>
+  </si>
+  <si>
+    <t>sklearn, OpenCV, numpy, Pandas, TensorFlow, Keras, PyQT5</t>
+  </si>
+  <si>
+    <t>Trained a deep learning model for product recognition to enhance customer experience and avoid cheating in the system. Designed a desktop application using PYQT5 to validate the built model in a realworld environment.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence, Path planning, Embedded systems, bluetooth— C, Stm32</t>
+  </si>
+  <si>
+    <t>HAL library</t>
+  </si>
+  <si>
+    <t>Investigated and analyzed path-planning algorithms, to select suitable algorithms for microcontroller
+specification. Implemented and simulated wavefront algorithm in Python to test it before implementation
+inside STM32 microcontroller. Designed the full circuit and software-based STM32 to achieve navigation
+ability in a grid environment.</t>
+  </si>
+  <si>
+    <t>Computer vision, desktop application development, Encryption steganography, Compression—
+Matlab</t>
+  </si>
+  <si>
+    <t>Outcomes:Developed different steganography algorithms to improve information security via hiding data
+including text, images, and even PDF files into images, sound, and video. Developed a hybrid system based
+on steganography and cryptography to improve information security. Implemented different compression
+algorithms, such as LZW to improve steganography capacity. Compared to other work, I achieved better
+capacity and higher security level, with PSNR = 76%</t>
+  </si>
+  <si>
+    <t>Reward for academic Excellence in master's degree</t>
+  </si>
+  <si>
+    <t>Reward for best conference presentation</t>
+  </si>
+  <si>
+    <t>Reward for academic Excellence</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/frai.2024.1337356/abstract</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S2542660523002378</t>
+  </si>
+  <si>
+    <t>http://injoit.org/index.php/j1/article/view/1620</t>
+  </si>
+  <si>
+    <t>http://injoit.org/index.php/j1/article/view/1625</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>fdfdfdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,10 +557,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,8 +570,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,11 +858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="22" style="3" customWidth="1"/>
@@ -569,10 +871,12 @@
     <col min="5" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="34" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -598,97 +902,97 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
         <v>2021</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>2019</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <v>2021</v>
@@ -697,33 +1001,33 @@
         <v>2023</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>2019</v>
@@ -732,33 +1036,33 @@
         <v>2021</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>2011</v>
@@ -767,19 +1071,19 @@
         <v>2015</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -790,27 +1094,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -818,10 +1108,9 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="43.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -846,67 +1135,216 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>11.202199999999999</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -916,26 +1354,407 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="135">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="345">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="195">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="285">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://skoltech.instructure.com/"/>
+    <hyperlink ref="F3:F9" r:id="rId2" display="https://skoltech.instructure.com/"/>
+    <hyperlink ref="F10:F13" r:id="rId3" display="https://skoltech.instructure.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -944,11 +1763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="104.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
@@ -959,127 +1778,127 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3">
         <v>2023</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3">
         <v>2023</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3">
         <v>2023</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3">
         <v>2023</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3">
         <v>2023</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1109,24 +1928,24 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
